--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA51005-3DAF-445F-8AA8-F526731AF703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B745F6A-FAF7-4920-BFA1-926CC9B07098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>BUENO MONTOYA CARLOS ANDRES</t>
   </si>
@@ -259,14 +259,34 @@
   </si>
   <si>
     <t>Nombre Estudiante</t>
+  </si>
+  <si>
+    <t>Laboratorio 3</t>
+  </si>
+  <si>
+    <t>Nota 3</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -294,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -321,6 +341,36 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -336,9 +386,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -351,13 +399,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -366,22 +412,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -401,8 +458,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,14 +490,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -439,6 +531,149 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -459,112 +694,97 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -677,15 +897,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:F71" totalsRowShown="0">
-  <autoFilter ref="A3:F71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:G71" totalsRowShown="0">
+  <autoFilter ref="A3:G71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,19 +1189,22 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1002,6 +1226,9 @@
       <c r="F3" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="G3" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1019,7 +1246,8 @@
       <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1037,7 +1265,8 @@
       <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1055,7 +1284,8 @@
       <c r="E6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1071,7 +1301,8 @@
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1089,9 +1320,10 @@
       <c r="E8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="F8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1109,7 +1341,8 @@
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1127,7 +1360,8 @@
       <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1145,7 +1379,8 @@
       <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1163,9 +1398,10 @@
       <c r="E12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="F12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1183,7 +1419,8 @@
       <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1201,9 +1438,10 @@
       <c r="E14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="F14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1221,7 +1459,8 @@
       <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1239,9 +1478,10 @@
       <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="9"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1257,9 +1497,10 @@
       <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1275,11 +1516,12 @@
       <c r="E18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1295,9 +1537,10 @@
       <c r="E19" s="5">
         <v>0</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1313,9 +1556,10 @@
       <c r="E20" s="5">
         <v>0</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1331,11 +1575,14 @@
       <c r="E21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1351,9 +1598,10 @@
       <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="9"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1369,9 +1617,10 @@
       <c r="E23" s="5">
         <v>0</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1387,9 +1636,10 @@
       <c r="E24" s="5">
         <v>0</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="9"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1405,9 +1655,10 @@
       <c r="E25" s="5">
         <v>0</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1423,9 +1674,10 @@
       <c r="E26" s="5">
         <v>0</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="9"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1441,9 +1693,10 @@
       <c r="E27" s="5">
         <v>0</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1459,9 +1712,12 @@
       <c r="E28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1477,9 +1733,10 @@
       <c r="E29" s="5">
         <v>0</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="9"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1495,9 +1752,10 @@
       <c r="E30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="9"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1513,9 +1771,10 @@
       <c r="E31" s="5">
         <v>0</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="9"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1531,9 +1790,10 @@
       <c r="E32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="9"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1549,9 +1809,10 @@
       <c r="E33" s="5">
         <v>0</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="9"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1567,9 +1828,10 @@
       <c r="E34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="9"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1585,9 +1847,10 @@
       <c r="E35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="9"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1603,9 +1866,10 @@
       <c r="E36" s="5">
         <v>0</v>
       </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="9"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1621,9 +1885,10 @@
       <c r="E37" s="5">
         <v>0</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="9"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1639,9 +1904,10 @@
       <c r="E38" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="9"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1657,9 +1923,10 @@
       <c r="E39" s="5">
         <v>0</v>
       </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="9"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -1675,9 +1942,10 @@
       <c r="E40" s="5">
         <v>0</v>
       </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="9"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -1693,9 +1961,10 @@
       <c r="E41" s="5">
         <v>0</v>
       </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="9"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -1711,9 +1980,10 @@
       <c r="E42" s="5">
         <v>0</v>
       </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="9"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -1729,9 +1999,10 @@
       <c r="E43" s="5">
         <v>0</v>
       </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="9"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -1747,9 +2018,10 @@
       <c r="E44" s="5">
         <v>0</v>
       </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="9"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -1765,9 +2037,10 @@
       <c r="E45" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="9"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -1783,9 +2056,10 @@
       <c r="E46" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="9"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -1801,9 +2075,10 @@
       <c r="E47" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="9"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -1819,9 +2094,10 @@
       <c r="E48" s="5">
         <v>0</v>
       </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="9"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -1837,9 +2113,10 @@
       <c r="E49" s="5">
         <v>0</v>
       </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="9"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -1855,9 +2132,10 @@
       <c r="E50" s="5">
         <v>0</v>
       </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="9"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -1873,9 +2151,10 @@
       <c r="E51" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="9"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -1891,9 +2170,10 @@
       <c r="E52" s="5">
         <v>0</v>
       </c>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="9"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -1909,9 +2189,10 @@
       <c r="E53" s="5">
         <v>0</v>
       </c>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="9"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -1927,9 +2208,10 @@
       <c r="E54" s="5">
         <v>0</v>
       </c>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="9"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -1945,9 +2227,10 @@
       <c r="E55" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="9"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -1963,9 +2246,10 @@
       <c r="E56" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="9"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -1981,9 +2265,10 @@
       <c r="E57" s="5">
         <v>0</v>
       </c>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="9"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -1999,9 +2284,10 @@
       <c r="E58" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="9"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -2017,9 +2303,10 @@
       <c r="E59" s="5">
         <v>0</v>
       </c>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="9"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -2035,9 +2322,10 @@
       <c r="E60" s="5">
         <v>0</v>
       </c>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="9"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -2053,9 +2341,10 @@
       <c r="E61" s="5">
         <v>0</v>
       </c>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="9"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -2071,9 +2360,12 @@
       <c r="E62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="9"/>
+      <c r="G62" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -2089,9 +2381,10 @@
       <c r="E63" s="5">
         <v>0</v>
       </c>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="9"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -2107,9 +2400,10 @@
       <c r="E64" s="5">
         <v>0</v>
       </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="9"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -2125,9 +2419,10 @@
       <c r="E65" s="5">
         <v>0</v>
       </c>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="9"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -2143,11 +2438,12 @@
       <c r="E66" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -2163,9 +2459,10 @@
       <c r="E67" s="5">
         <v>0</v>
       </c>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="9"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -2181,9 +2478,10 @@
       <c r="E68" s="5">
         <v>0</v>
       </c>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="9"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -2199,9 +2497,10 @@
       <c r="E69" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="9"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -2217,9 +2516,12 @@
       <c r="E70" s="5">
         <v>0</v>
       </c>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -2235,7 +2537,8 @@
       <c r="E71" s="5">
         <v>0</v>
       </c>
-      <c r="F71" s="5"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B71">
@@ -2245,63 +2548,118 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E71">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11 F13 F15:F71">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F71">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
       <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B745F6A-FAF7-4920-BFA1-926CC9B07098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C8BE54-4CB0-4F4C-9A0D-88071B276A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
   <si>
     <t>BUENO MONTOYA CARLOS ANDRES</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>4.2</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -507,6 +530,441 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -685,6 +1143,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -705,6 +1188,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -715,6 +1233,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -795,31 +1343,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -900,13 +1423,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:G71" totalsRowShown="0">
   <autoFilter ref="A3:G71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1177,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,8 +1788,12 @@
       <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1284,7 +1811,9 @@
       <c r="E6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1401,7 +1930,9 @@
       <c r="F12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1519,7 +2050,9 @@
       <c r="F18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1715,7 +2248,9 @@
       <c r="F28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1790,8 +2325,12 @@
       <c r="E32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="5"/>
+      <c r="F32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1905,7 +2444,9 @@
         <v>70</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="5"/>
+      <c r="G38" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -2056,7 +2597,9 @@
       <c r="E46" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2075,7 +2618,9 @@
       <c r="E47" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2151,7 +2696,9 @@
       <c r="E51" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2227,7 +2774,9 @@
       <c r="E55" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2246,7 +2795,9 @@
       <c r="E56" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2360,7 +2911,9 @@
       <c r="E62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G62" s="6" t="s">
         <v>81</v>
       </c>
@@ -2497,7 +3050,9 @@
       <c r="E69" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="9"/>
+      <c r="F69" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2548,118 +3103,341 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E71">
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="80" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="74" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11 F13 F15:F71">
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="79" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="78" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="29" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="77" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F71">
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="76" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="75" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="71" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="72" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="69" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="70" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="67" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="68" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="66" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="64" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="65" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="61" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="58" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="59" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="57" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="55" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="56" operator="between">
       <formula>3</formula>
       <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="63" priority="50" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="51" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="52" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="49" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="47" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="45" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="43" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="41" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="39" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C8BE54-4CB0-4F4C-9A0D-88071B276A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C3598D-80CB-4380-8558-28C146F44252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
   <si>
     <t>BUENO MONTOYA CARLOS ANDRES</t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>3.8</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.0</t>
   </si>
 </sst>
 </file>
@@ -497,7 +509,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="134">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -555,13 +567,83 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -570,123 +652,58 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -715,6 +732,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -740,26 +797,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -782,11 +819,56 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -815,26 +897,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -855,116 +917,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1178,6 +1130,86 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1213,46 +1245,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1318,31 +1310,461 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1423,13 +1845,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:G71" totalsRowShown="0">
   <autoFilter ref="A3:G71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1700,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,7 +2394,9 @@
       <c r="F14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2287,8 +2711,12 @@
       <c r="E30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="5"/>
+      <c r="F30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -2306,8 +2734,12 @@
       <c r="E31" s="5">
         <v>0</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -2367,8 +2799,12 @@
       <c r="E34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -2798,7 +3234,9 @@
       <c r="F56" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="5"/>
+      <c r="G56" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -2835,8 +3273,12 @@
       <c r="E58" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="5"/>
+      <c r="F58" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -2994,7 +3436,9 @@
       <c r="F66" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G66" s="5"/>
+      <c r="G66" s="16" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -3012,8 +3456,12 @@
       <c r="E67" s="5">
         <v>0</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="5"/>
+      <c r="F67" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -3103,323 +3551,524 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E71">
-    <cfRule type="cellIs" dxfId="88" priority="80" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="127" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="121" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11 F13 F15:F71">
-    <cfRule type="cellIs" dxfId="86" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="126" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="85" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="125" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="84" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="124" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F71">
-    <cfRule type="cellIs" dxfId="8" priority="76" operator="between">
+    <cfRule type="cellIs" dxfId="128" priority="123" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="122" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="120" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="83" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="118" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="119" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="81" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="116" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="117" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="79" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="114" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="115" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="110" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="113" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="75" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="64" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="111" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="65" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="112" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="107" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="108" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="70" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="105" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="106" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="68" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="104" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="67" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="55" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="102" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="103" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="64" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="100" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="63" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="51" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="98" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="99" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="95" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="96" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="93" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="94" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="91" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="92" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="89" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="90" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="87" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="88" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="85" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="86" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="83" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="84" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="39" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="82" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="80" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="81" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="77" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="78" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="76" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="74" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="75" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="71" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="72" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="70" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="68" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="69" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="65" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="63" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="64" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="60" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="61" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="59" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="56" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="57" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="54" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="55" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="59" priority="53" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="51" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="52" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="49" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G58">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3432,7 +4081,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G58">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>

--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C3598D-80CB-4380-8558-28C146F44252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109B83CC-16FE-4F32-B597-E9D7E28316C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>BUENO MONTOYA CARLOS ANDRES</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>4.0</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.5</t>
   </si>
 </sst>
 </file>
@@ -509,434 +515,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="134">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+  <dxfs count="135">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1075,6 +671,426 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1845,13 +1861,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:G71" totalsRowShown="0">
   <autoFilter ref="A3:G71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2122,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,7 +2728,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>83</v>
@@ -2735,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2800,7 +2816,7 @@
         <v>72</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>83</v>
@@ -3014,7 +3030,9 @@
       <c r="E45" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3277,7 +3295,7 @@
         <v>70</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3551,537 +3569,542 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E71">
-    <cfRule type="cellIs" dxfId="133" priority="127" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="133" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="127" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11 F13 F15:F71">
-    <cfRule type="cellIs" dxfId="131" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="132" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="130" priority="125" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="131" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="129" priority="124" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="130" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F71">
-    <cfRule type="cellIs" dxfId="128" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="129" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="122" operator="between">
+    <cfRule type="cellIs" dxfId="128" priority="128" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="126" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="125" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="125" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="123" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="122" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="117" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="123" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="121" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="120" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="115" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="121" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="119" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="116" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="113" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="117" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="117" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="112" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="118" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="114" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="108" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="114" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="112" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="106" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="112" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="110" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="110" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="109" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="107" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="108" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="103" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="109" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="106" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="106" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="105" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="98" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="104" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="105" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="102" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="102" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="100" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="99" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="100" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="98" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="96" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="96" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="94" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="93" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="94" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="92" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="91" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="92" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="90" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="88" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="87" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="80" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="86" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="81" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="87" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="84" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="82" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="81" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="80" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="81" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="78" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="73" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="74" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="69" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="71" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="63" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="69" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="64" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="67" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="66" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="63" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="61" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="59" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="59" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="51" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="57" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="48" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="36" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
+  <conditionalFormatting sqref="F45">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>

--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109B83CC-16FE-4F32-B597-E9D7E28316C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819EFD44-2BD1-4C0D-8AC6-C77745E3FA30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="91">
   <si>
     <t>BUENO MONTOYA CARLOS ANDRES</t>
   </si>
@@ -292,13 +292,19 @@
   </si>
   <si>
     <t>4.5</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,8 +320,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -511,28 +530,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="135">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+  <dxfs count="153">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -671,6 +838,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1861,13 +2048,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:G71" totalsRowShown="0">
   <autoFilter ref="A3:G71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2138,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,7 +2915,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>83</v>
@@ -2751,9 +2938,9 @@
         <v>0</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2816,7 +3003,7 @@
         <v>72</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>83</v>
@@ -2857,8 +3044,12 @@
       <c r="E36" s="5">
         <v>0</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="5"/>
+      <c r="F36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -2935,8 +3126,12 @@
       <c r="E40" s="5">
         <v>0</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="5"/>
+      <c r="F40" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -3454,8 +3649,8 @@
       <c r="F66" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G66" s="16" t="s">
-        <v>72</v>
+      <c r="G66" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3569,126 +3764,200 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E71">
-    <cfRule type="cellIs" dxfId="134" priority="133" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="151" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="145" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11 F13 F15:F71">
-    <cfRule type="cellIs" dxfId="132" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="150" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="131" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="149" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="130" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="148" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F71">
-    <cfRule type="cellIs" dxfId="129" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="147" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="128" operator="between">
+    <cfRule type="cellIs" dxfId="146" priority="146" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="144" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="125" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="142" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="143" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="124" priority="122" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="123" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="140" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="141" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="122" priority="120" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="121" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="138" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="139" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="120" priority="116" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="134" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="137" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="118" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="117" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="135" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="118" operator="between">
+    <cfRule type="cellIs" dxfId="134" priority="136" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="114" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="131" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="132" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="129" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="130" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="111" priority="110" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="128" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="110" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="125" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="108" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="126" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="109" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="127" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="125" priority="124" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="124" priority="121" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="122" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="123" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="121" priority="119" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="120" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="cellIs" dxfId="119" priority="117" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="118" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="cellIs" dxfId="117" priority="115" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="116" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="114" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="112" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="110" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="108" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="107" priority="106" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="106" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3701,7 +3970,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -3709,230 +3978,208 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="101" priority="99" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="100" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="98" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="96" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="95" priority="93" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="93" priority="91" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="92" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="101" priority="100" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="100" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="86" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="98" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="87" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="99" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="96" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="94" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="93" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="80" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="92" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="93" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="77" priority="73" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="75" priority="72" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="90" priority="89" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="89" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="87" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="88" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="72" priority="71" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="71" priority="68" operator="equal">
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="86" priority="84" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="84" priority="82" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="80" priority="78" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="79" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="78" priority="77" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="77" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="69" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="75" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="68" priority="66" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="60" priority="59" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="59" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="72" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="72" priority="68" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="70" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="57" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="61" priority="60" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="57" priority="56" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="54" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
     <cfRule type="cellIs" dxfId="49" priority="48" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G67">
     <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3945,7 +4192,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G67">
     <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -3953,158 +4200,156 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="43" priority="42" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="37" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="F36">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>

--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819EFD44-2BD1-4C0D-8AC6-C77745E3FA30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9606D4-1032-4665-BA02-C8E0CAA7B46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="90">
   <si>
     <t>BUENO MONTOYA CARLOS ANDRES</t>
   </si>
@@ -295,16 +295,13 @@
   </si>
   <si>
     <t>4.75</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,15 +317,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,12 +334,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -530,156 +514,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="153">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="155">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -893,16 +789,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -948,6 +834,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1003,16 +899,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1088,26 +974,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1143,6 +1009,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1178,21 +1064,141 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2048,13 +2054,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:G71" totalsRowShown="0">
   <autoFilter ref="A3:G71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2326,7 +2332,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,8 +2920,8 @@
       <c r="E30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>90</v>
+      <c r="F30" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>83</v>
@@ -2937,8 +2943,8 @@
       <c r="E31" s="5">
         <v>0</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>90</v>
+      <c r="F31" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>88</v>
@@ -3002,11 +3008,11 @@
       <c r="E34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>90</v>
+      <c r="F34" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3126,8 +3132,8 @@
       <c r="E40" s="5">
         <v>0</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>90</v>
+      <c r="F40" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>82</v>
@@ -3764,388 +3770,422 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E71">
-    <cfRule type="cellIs" dxfId="152" priority="151" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="159" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="153" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11 F13 F15:F71">
-    <cfRule type="cellIs" dxfId="150" priority="150" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="158" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="149" priority="149" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="157" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="148" priority="148" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="156" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F71">
-    <cfRule type="cellIs" dxfId="147" priority="147" operator="between">
+    <cfRule type="cellIs" dxfId="149" priority="155" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="146" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="154" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="152" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="144" priority="142" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="143" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="150" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="151" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="142" priority="140" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="141" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="148" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="149" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="140" priority="138" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="139" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="147" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="138" priority="134" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="142" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="145" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="136" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="141" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="135" operator="between">
+    <cfRule type="cellIs" dxfId="137" priority="143" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="136" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="144" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="133" priority="131" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="139" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="140" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="131" priority="129" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="137" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="138" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="129" priority="128" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="136" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="128" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="126" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="134" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="127" operator="between">
+    <cfRule type="cellIs" dxfId="128" priority="135" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="125" priority="124" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="132" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="124" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="129" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="122" operator="between">
+    <cfRule type="cellIs" dxfId="125" priority="130" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="131" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="121" priority="119" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="127" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="128" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="119" priority="117" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="125" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="126" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="117" priority="115" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="123" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="124" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="114" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="122" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="120" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="110" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="117" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="118" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="108" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="115" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="116" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="107" priority="106" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="114" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="106" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="112" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="113" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="102" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="109" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="110" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="101" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="108" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="100" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="105" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="98" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="106" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="107" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="103" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="104" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="102" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="93" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="92" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="100" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="93" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="101" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="90" priority="89" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="97" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="89" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="87" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="95" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="88" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="96" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="86" priority="84" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="93" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="84" priority="82" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="90" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="91" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="89" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="80" priority="78" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="87" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="78" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="85" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="77" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="83" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="84" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="74" priority="72" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="81" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="72" priority="68" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="79" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="70" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="77" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="78" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="61" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="68" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="66" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="64" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="62" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
     <cfRule type="cellIs" dxfId="57" priority="56" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
+  <conditionalFormatting sqref="G67">
     <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4158,7 +4198,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
+  <conditionalFormatting sqref="G67">
     <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -4166,194 +4206,192 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="49" priority="48" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="45" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="37" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="32" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="34" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="25" priority="20" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
-      <formula>"2.9"</formula>
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9606D4-1032-4665-BA02-C8E0CAA7B46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5324F5F-9192-459C-B2B5-C662AA0BFD16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
   <si>
     <t>BUENO MONTOYA CARLOS ANDRES</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>4.5</t>
-  </si>
-  <si>
-    <t>4.75</t>
   </si>
 </sst>
 </file>
@@ -520,86 +517,6 @@
   </cellStyles>
   <dxfs count="155">
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -754,6 +671,86 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2054,13 +2051,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:G71" totalsRowShown="0">
   <autoFilter ref="A3:G71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2331,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3656,7 +3653,7 @@
         <v>70</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4364,34 +4361,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5324F5F-9192-459C-B2B5-C662AA0BFD16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCB9EF6-94EE-4777-8E53-084017DB9DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="89">
   <si>
     <t>BUENO MONTOYA CARLOS ANDRES</t>
   </si>
@@ -515,7 +515,62 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="155">
+  <dxfs count="161">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2051,13 +2106,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:G71" totalsRowShown="0">
   <autoFilter ref="A3:G71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2328,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,7 +2497,9 @@
       <c r="F6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3767,139 +3824,163 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E71">
-    <cfRule type="cellIs" dxfId="154" priority="159" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="165" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="159" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11 F13 F15:F71">
-    <cfRule type="cellIs" dxfId="152" priority="158" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="164" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="151" priority="157" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="163" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="150" priority="156" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="162" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F71">
-    <cfRule type="cellIs" dxfId="149" priority="155" operator="between">
+    <cfRule type="cellIs" dxfId="155" priority="161" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="154" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="160" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="158" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="146" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="156" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="157" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="150" priority="154" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="155" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="cellIs" dxfId="148" priority="152" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="153" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="145" priority="151" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="144" priority="148" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="149" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="147" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="140" priority="142" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="145" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="138" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="147" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="143" operator="between">
+    <cfRule type="cellIs" dxfId="143" priority="149" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="144" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="150" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="135" priority="139" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="140" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="145" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="146" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="133" priority="137" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="138" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="143" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="144" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="131" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="142" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="130" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="134" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="140" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="135" operator="between">
+    <cfRule type="cellIs" dxfId="134" priority="141" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="127" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="138" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="126" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="135" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="130" operator="between">
+    <cfRule type="cellIs" dxfId="131" priority="136" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="131" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="137" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="129" priority="133" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="134" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="cellIs" dxfId="127" priority="131" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="132" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="cellIs" dxfId="125" priority="129" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="130" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
     <cfRule type="cellIs" dxfId="123" priority="127" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -3907,7 +3988,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="F5">
     <cfRule type="cellIs" dxfId="121" priority="125" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -3915,7 +3996,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
+  <conditionalFormatting sqref="F32">
     <cfRule type="cellIs" dxfId="119" priority="123" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -3923,7 +4004,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
+  <conditionalFormatting sqref="F6">
     <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -3931,23 +4012,25 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="120" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="113" priority="117" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="118" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="115" priority="120" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="114" priority="117" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="118" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="119" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="111" priority="115" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -3955,12 +4038,12 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="109" priority="114" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3973,7 +4056,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="105" priority="109" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -3981,96 +4064,96 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="103" priority="108" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="102" priority="105" operator="equal">
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="108" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="106" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="107" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="99" priority="103" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="104" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="102" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="95" priority="98" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="98" priority="103" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="97" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="100" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="101" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="102" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="92" priority="97" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="91" priority="94" operator="equal">
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="94" priority="98" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="99" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="97" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="95" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="93" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="86" priority="91" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="85" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="95" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="89" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="96" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="90" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="93" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="86" priority="90" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="91" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="89" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="G28">
     <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -4078,98 +4161,98 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="80" priority="85" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="79" priority="82" operator="equal">
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="85" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="83" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="83" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="84" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="81" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="79" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="75" priority="74" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="77" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="72" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="78" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="69" priority="68" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="68" priority="65" operator="equal">
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="70" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="68" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="69" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="64" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="64" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="63" priority="62" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="62" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="60" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+  <conditionalFormatting sqref="G67">
     <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -4177,54 +4260,54 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="57" priority="56" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="49" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="50" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="45" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="46" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="50" priority="44" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
     <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="42" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="43" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
+  <conditionalFormatting sqref="G58">
     <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -4232,12 +4315,12 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
+  <conditionalFormatting sqref="G31">
     <cfRule type="cellIs" dxfId="44" priority="38" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
+  <conditionalFormatting sqref="G31">
     <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4250,7 +4333,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
+  <conditionalFormatting sqref="F45">
     <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -4258,12 +4341,12 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="G66">
     <cfRule type="cellIs" dxfId="38" priority="32" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="G66">
     <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4276,7 +4359,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="G66">
     <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -4284,111 +4367,111 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCB9EF6-94EE-4777-8E53-084017DB9DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605F5020-E2CE-4DC6-A2F4-B0B80E081401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
   <si>
     <t>BUENO MONTOYA CARLOS ANDRES</t>
   </si>
@@ -276,9 +276,6 @@
     <t>3.8</t>
   </si>
   <si>
-    <t>3.5</t>
-  </si>
-  <si>
     <t>4.4</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>4.5</t>
+  </si>
+  <si>
+    <t>3.7</t>
   </si>
 </sst>
 </file>
@@ -335,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -429,37 +429,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -490,12 +464,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,62 +483,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="161">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="187">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -595,6 +508,241 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -726,6 +874,61 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2106,13 +2309,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:G71" totalsRowShown="0">
   <autoFilter ref="A3:G71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2383,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,11 +2603,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="8" t="s">
         <v>74</v>
       </c>
@@ -2453,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2575,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2615,7 +2818,7 @@
       <c r="F12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2657,8 +2860,8 @@
       <c r="F14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>84</v>
+      <c r="G14" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2737,7 +2940,7 @@
       <c r="F18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2798,7 +3001,7 @@
       <c r="F21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2978,7 +3181,7 @@
         <v>72</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3001,7 +3204,7 @@
         <v>72</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3066,7 +3269,7 @@
         <v>72</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3309,7 +3512,9 @@
       <c r="F46" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="5"/>
+      <c r="G46" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -3330,7 +3535,9 @@
       <c r="F47" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="5"/>
+      <c r="G47" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -3486,7 +3693,9 @@
       <c r="F55" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="5"/>
+      <c r="G55" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -3508,7 +3717,7 @@
         <v>70</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3550,7 +3759,7 @@
         <v>70</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3709,8 +3918,8 @@
       <c r="F66" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G66" s="10" t="s">
-        <v>87</v>
+      <c r="G66" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3732,8 +3941,8 @@
       <c r="F67" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="10" t="s">
-        <v>86</v>
+      <c r="G67" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3792,7 +4001,7 @@
       <c r="E70" s="5">
         <v>0</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="14" t="s">
         <v>72</v>
       </c>
       <c r="G70" s="5"/>
@@ -3814,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="9"/>
-      <c r="G71" s="14"/>
+      <c r="G71" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B71">
@@ -3824,655 +4033,723 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E71">
-    <cfRule type="cellIs" dxfId="160" priority="165" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="181" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="175" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11 F13 F15:F71">
-    <cfRule type="cellIs" dxfId="158" priority="164" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="180" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="157" priority="163" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="179" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="156" priority="162" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="178" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F71">
-    <cfRule type="cellIs" dxfId="155" priority="161" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="177" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="160" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="176" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="174" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="152" priority="156" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="157" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="172" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="173" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="150" priority="154" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="155" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="170" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="171" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="148" priority="152" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="153" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="168" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="169" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="151" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="164" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="167" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="144" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="149" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="165" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="150" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="166" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="141" priority="145" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="146" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="161" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="162" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="139" priority="143" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="144" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="159" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="160" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="137" priority="142" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="158" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="136" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="155" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="140" operator="between">
+    <cfRule type="cellIs" dxfId="161" priority="156" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="157" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="133" priority="138" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="154" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="132" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="136" operator="between">
+    <cfRule type="cellIs" dxfId="157" priority="152" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="137" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="153" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="129" priority="133" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="134" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="149" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="150" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="127" priority="131" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="147" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="148" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="125" priority="129" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="145" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="146" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="123" priority="127" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="128" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="143" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="144" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="121" priority="125" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="141" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="142" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="119" priority="123" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="124" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="139" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="140" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="122" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="137" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="138" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="115" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="136" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="114" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="118" operator="between">
+    <cfRule type="cellIs" dxfId="139" priority="134" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="119" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="135" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="111" priority="115" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="131" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="132" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="109" priority="114" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="130" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="112" operator="between">
+    <cfRule type="cellIs" dxfId="133" priority="128" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="113" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="129" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="105" priority="109" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="110" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="125" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="126" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="108" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="121" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="124" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="120" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="122" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="125" priority="123" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="98" priority="103" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="119" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="97" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="116" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="117" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="118" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="94" priority="98" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="114" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="115" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="112" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="113" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="110" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="111" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="108" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="109" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="86" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="107" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="85" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="105" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="90" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="106" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="102" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="103" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="98" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="101" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="83" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="99" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="100" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="75" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="90" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="72" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="88" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="89" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="71" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="86" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="70" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="84" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="85" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="81" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="82" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="79" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="80" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="63" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="78" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="62" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="76" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="77" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="73" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="74" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="64" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="67" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="49" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="65" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="66" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="61" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="62" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="50" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="60" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="58" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="59" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="55" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="56" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="44" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="54" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="52" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="53" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="49" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="50" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="48" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="46" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="43" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="44" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="39" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="42" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="40" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="41" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="34" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="37" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="35" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="36" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="31" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="32" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="30" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="27" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="28" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="26" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605F5020-E2CE-4DC6-A2F4-B0B80E081401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D9186F-4EF7-4EC4-B42F-D7EA5D61BCF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="90">
   <si>
     <t>BUENO MONTOYA CARLOS ANDRES</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>3.7</t>
+  </si>
+  <si>
+    <t>4.9</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="187">
+  <dxfs count="177">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -508,241 +511,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -854,6 +622,151 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2309,12 +2222,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:G71" totalsRowShown="0">
   <autoFilter ref="A3:G71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2586,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,14 +3293,14 @@
       <c r="B40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="5">
-        <v>0</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0</v>
+      <c r="C40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>72</v>
@@ -3513,7 +3426,7 @@
         <v>70</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4033,721 +3946,721 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E71">
-    <cfRule type="cellIs" dxfId="186" priority="181" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="181" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="175" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11 F13 F15:F71">
-    <cfRule type="cellIs" dxfId="184" priority="180" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="180" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="183" priority="179" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="179" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="182" priority="178" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="178" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F71">
-    <cfRule type="cellIs" dxfId="181" priority="177" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="177" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="176" operator="between">
+    <cfRule type="cellIs" dxfId="170" priority="176" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="174" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="178" priority="172" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="173" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="172" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="173" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="176" priority="170" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="171" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="170" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="171" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="174" priority="168" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="169" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="168" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="169" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="172" priority="164" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="164" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="167" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="170" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="165" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="165" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="166" operator="between">
+    <cfRule type="cellIs" dxfId="158" priority="166" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="167" priority="161" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="162" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="161" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="162" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="165" priority="159" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="160" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="159" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="160" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="163" priority="158" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="158" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="162" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="155" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="156" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="156" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="157" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="157" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="159" priority="154" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="154" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="158" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="152" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="152" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="153" operator="between">
+    <cfRule type="cellIs" dxfId="146" priority="153" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="155" priority="149" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="150" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="149" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="150" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="153" priority="147" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="148" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="147" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="148" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="151" priority="145" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="146" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="145" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="146" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="149" priority="143" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="144" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="143" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="144" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="147" priority="141" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="142" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="141" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="142" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="145" priority="139" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="140" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="139" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="140" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="143" priority="137" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="138" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="137" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="138" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="141" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="136" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="140" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="134" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="134" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="135" operator="between">
+    <cfRule type="cellIs" dxfId="128" priority="135" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="137" priority="131" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="131" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="132" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="135" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="130" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="134" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="128" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="128" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="129" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="131" priority="125" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="125" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="126" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="129" priority="121" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="124" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="121" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="124" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="127" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="120" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="122" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="122" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="123" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="124" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="119" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="123" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="116" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="117" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="117" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="118" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="118" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="120" priority="114" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="115" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="114" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="115" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="118" priority="112" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="113" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="112" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="113" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="116" priority="110" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="111" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="114" priority="108" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="108" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="109" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="112" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="107" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="111" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="105" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="106" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="108" priority="102" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="103" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="102" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="103" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="106" priority="98" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="101" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="98" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="101" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="104" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="99" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="100" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="100" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="101" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="90" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="100" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="88" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="97" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="86" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="96" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="84" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="85" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="93" priority="81" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="91" priority="79" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="79" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="80" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="89" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="78" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="88" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="76" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="77" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="85" priority="73" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="83" priority="64" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="64" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="67" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="81" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="65" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="65" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="66" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="78" priority="61" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="62" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="76" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="60" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="75" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="58" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="59" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="72" priority="55" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="70" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="54" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="69" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="52" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="53" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="53" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="66" priority="49" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="64" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="48" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="63" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="46" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="47" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="60" priority="43" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="44" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="58" priority="39" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="42" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="56" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="41" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="53" priority="34" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="37" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="48" priority="31" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="44" priority="27" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>

--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D9186F-4EF7-4EC4-B42F-D7EA5D61BCF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEFD7A5-3848-44B0-B0CB-A83158E22617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,52 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="177">
+  <dxfs count="182">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2222,13 +2267,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:G71" totalsRowShown="0">
   <autoFilter ref="A3:G71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2499,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3449,7 +3494,7 @@
         <v>70</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3946,550 +3991,571 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E71">
-    <cfRule type="cellIs" dxfId="176" priority="181" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="186" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="180" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11 F13 F15:F71">
-    <cfRule type="cellIs" dxfId="174" priority="180" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="185" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="173" priority="179" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="184" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="172" priority="178" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="183" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F71">
-    <cfRule type="cellIs" dxfId="171" priority="177" operator="between">
+    <cfRule type="cellIs" dxfId="176" priority="182" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="176" operator="between">
+    <cfRule type="cellIs" dxfId="175" priority="181" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="179" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="168" priority="172" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="173" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="177" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="178" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="166" priority="170" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="171" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="175" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="176" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="164" priority="168" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="169" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="173" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="174" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="162" priority="164" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="169" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="172" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="160" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="168" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="165" operator="between">
+    <cfRule type="cellIs" dxfId="164" priority="170" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="166" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="171" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="157" priority="161" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="162" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="166" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="167" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="155" priority="159" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="160" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="164" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="165" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="153" priority="158" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="163" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="152" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="156" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="161" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="157" operator="between">
+    <cfRule type="cellIs" dxfId="155" priority="162" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="149" priority="154" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="159" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="148" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="156" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="152" operator="between">
+    <cfRule type="cellIs" dxfId="152" priority="157" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="153" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="158" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="145" priority="149" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="150" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="154" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="155" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="143" priority="147" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="148" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="152" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="153" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="141" priority="145" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="146" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="150" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="151" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="139" priority="143" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="144" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="148" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="149" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="137" priority="141" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="142" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="147" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="135" priority="139" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="140" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="144" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="145" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="133" priority="137" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="138" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="142" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="143" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="131" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="141" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="130" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="134" operator="between">
+    <cfRule type="cellIs" dxfId="134" priority="139" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="135" operator="between">
+    <cfRule type="cellIs" dxfId="133" priority="140" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="127" priority="131" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="136" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="137" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="125" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="135" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="124" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="132" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="128" operator="between">
+    <cfRule type="cellIs" dxfId="128" priority="133" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="134" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="121" priority="125" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="130" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="131" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="119" priority="121" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="124" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="126" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="129" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="117" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="125" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="122" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="127" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="128" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="114" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="124" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="113" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="117" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="122" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="118" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="123" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="110" priority="114" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="115" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="120" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="108" priority="112" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="113" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="117" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="118" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="115" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="116" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="104" priority="108" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="113" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="114" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="102" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="112" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="110" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="111" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="98" priority="102" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="103" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="107" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="108" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="96" priority="98" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="101" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="106" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="94" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="104" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="100" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="105" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="91" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="95" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="93" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="94" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="87" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="91" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="89" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="85" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="90" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="87" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="81" priority="79" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="84" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="79" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="83" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="78" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="81" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="78" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="79" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="73" priority="64" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="69" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="72" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="71" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="65" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="70" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="71" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="66" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="67" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="66" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="65" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="65" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="63" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="64" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="60" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="61" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="60" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="59" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="59" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="57" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="53" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="54" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="55" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="54" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="53" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="51" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="47" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="52" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="49" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="53" priority="44" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="47" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="45" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="46" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
     <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
@@ -4497,7 +4563,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
+  <conditionalFormatting sqref="G36">
     <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4510,157 +4576,136 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="43" priority="36" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="37" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="33" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="31" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="32" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="28" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="24" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
-      <formula>"2.9"</formula>
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>

--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEFD7A5-3848-44B0-B0CB-A83158E22617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A601F1-DE54-47DA-881B-0291E7815048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="94">
   <si>
     <t>BUENO MONTOYA CARLOS ANDRES</t>
   </si>
@@ -295,13 +295,25 @@
   </si>
   <si>
     <t>4.9</t>
+  </si>
+  <si>
+    <t>Laboratorio 4</t>
+  </si>
+  <si>
+    <t>Nota 4</t>
+  </si>
+  <si>
+    <t>Cambio por Ejercicio</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,8 +329,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,51 +396,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -432,11 +418,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -446,7 +469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,13 +478,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -473,20 +495,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="182">
+  <dxfs count="344">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -533,135 +567,1532 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2261,22 +3692,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3ACDE8-A7C1-4D36-97E4-0F24A76B8D04}" name="Tabla1" displayName="Tabla1" ref="A3:G71" totalsRowShown="0">
-  <autoFilter ref="A3:G71" xr:uid="{DAC72CA5-81A2-4CC0-9820-08D51196F315}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5B7101A1-8911-420E-B200-01BADAC2ABE6}" name=" " dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{58B896E8-BC7D-43FC-929C-700FF7F57F05}" name="Nombre Estudiante" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{3A1E37B4-BFB3-4620-8FBD-F7BFE149CDBA}" name="Nota 1" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{EC1EC678-EF45-47F2-BF14-25B6DC73FB40}" name="Nota 2" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{95159755-7D6F-4C5C-B09E-A60C627C7D39}" name="Nota" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{4F043079-D370-4D8E-AADA-1FF0019F1173}" name="Nota " dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{F3298C1A-32CA-46FD-ADBE-27564A2E9862}" name="Nota 3" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2544,8 +3959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,23 +3971,25 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="7" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2593,8 +4010,11 @@
       <c r="F3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>79</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2604,17 +4024,18 @@
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2623,21 +4044,22 @@
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2646,20 +4068,23 @@
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>80</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2669,15 +4094,16 @@
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -2686,19 +4112,22 @@
       <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2707,17 +4136,18 @@
       <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2726,17 +4156,18 @@
       <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2745,17 +4176,18 @@
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2764,20 +4196,23 @@
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>80</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2787,17 +4222,18 @@
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2806,20 +4242,23 @@
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>83</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2829,17 +4268,18 @@
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2848,1872 +4288,2503 @@
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="C18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="C21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="5">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="C28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="C30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="C31" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="C32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="5">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="C34" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="5">
-        <v>0</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="6" t="s">
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="5">
-        <v>0</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="6" t="s">
+      <c r="C38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="5">
-        <v>0</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="5">
-        <v>0</v>
-      </c>
-      <c r="D41" s="5">
-        <v>0</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="5">
-        <v>0</v>
-      </c>
-      <c r="D42" s="5">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="5">
-        <v>0</v>
-      </c>
-      <c r="D43" s="5">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="5">
-        <v>0</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="5">
-        <v>0</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="C45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="6" t="s">
+      <c r="C46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="6" t="s">
+      <c r="C47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="5">
-        <v>0</v>
-      </c>
-      <c r="D48" s="5">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="5">
-        <v>0</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="5">
-        <v>0</v>
-      </c>
-      <c r="D50" s="5">
-        <v>0</v>
-      </c>
-      <c r="E50" s="5">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="5">
-        <v>0</v>
-      </c>
-      <c r="D52" s="5">
-        <v>0</v>
-      </c>
-      <c r="E52" s="5">
-        <v>0</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="5">
-        <v>0</v>
-      </c>
-      <c r="D53" s="5">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5">
-        <v>0</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="5">
-        <v>0</v>
-      </c>
-      <c r="D54" s="5">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" s="6" t="s">
+      <c r="C55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56" s="6" t="s">
+      <c r="C56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="5">
-        <v>0</v>
-      </c>
-      <c r="D57" s="5">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G58" s="6" t="s">
+      <c r="C58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="5">
-        <v>0</v>
-      </c>
-      <c r="D59" s="5">
-        <v>0</v>
-      </c>
-      <c r="E59" s="5">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="5">
-        <v>0</v>
-      </c>
-      <c r="D60" s="5">
-        <v>0</v>
-      </c>
-      <c r="E60" s="5">
-        <v>0</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="5">
-        <v>0</v>
-      </c>
-      <c r="D61" s="5">
-        <v>0</v>
-      </c>
-      <c r="E61" s="5">
-        <v>0</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G62" s="6" t="s">
+      <c r="C62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="5">
-        <v>0</v>
-      </c>
-      <c r="D63" s="5">
-        <v>0</v>
-      </c>
-      <c r="E63" s="5">
-        <v>0</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="5">
-        <v>0</v>
-      </c>
-      <c r="D64" s="5">
-        <v>0</v>
-      </c>
-      <c r="E64" s="5">
-        <v>0</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="5">
-        <v>0</v>
-      </c>
-      <c r="D65" s="5">
-        <v>0</v>
-      </c>
-      <c r="E65" s="5">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" s="6" t="s">
+      <c r="C66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="5">
-        <v>0</v>
-      </c>
-      <c r="D67" s="5">
-        <v>0</v>
-      </c>
-      <c r="E67" s="5">
-        <v>0</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" s="6" t="s">
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="5">
-        <v>0</v>
-      </c>
-      <c r="D68" s="5">
-        <v>0</v>
-      </c>
-      <c r="E68" s="5">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="5">
-        <v>0</v>
-      </c>
-      <c r="D70" s="5">
-        <v>0</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0</v>
-      </c>
-      <c r="F70" s="14" t="s">
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="4"/>
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="5">
-        <v>0</v>
-      </c>
-      <c r="D71" s="5">
-        <v>0</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0</v>
-      </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="5"/>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B71">
     <sortCondition ref="B4"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E71">
-    <cfRule type="cellIs" dxfId="181" priority="186" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="360" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="354" operator="equal">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11 F13 F15:F71">
-    <cfRule type="cellIs" dxfId="179" priority="185" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="341" priority="359" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="178" priority="184" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="340" priority="358" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="177" priority="183" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="339" priority="357" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F71">
-    <cfRule type="cellIs" dxfId="176" priority="182" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="181" operator="between">
+    <cfRule type="cellIs" dxfId="338" priority="356" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="355" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="353" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="173" priority="177" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="178" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="335" priority="351" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="352" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="171" priority="175" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="176" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="333" priority="349" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="350" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="169" priority="173" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="174" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="331" priority="347" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="348" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="167" priority="169" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="172" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="329" priority="343" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="346" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="165" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="342" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="170" operator="between">
+    <cfRule type="cellIs" dxfId="326" priority="344" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="171" operator="between">
+    <cfRule type="cellIs" dxfId="325" priority="345" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="162" priority="166" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="340" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="323" priority="341" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="160" priority="164" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="165" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="322" priority="338" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="339" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="158" priority="163" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="320" priority="337" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="157" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="334" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="161" operator="between">
+    <cfRule type="cellIs" dxfId="318" priority="335" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="162" operator="between">
+    <cfRule type="cellIs" dxfId="317" priority="336" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="154" priority="159" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="316" priority="333" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="153" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="330" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="157" operator="between">
+    <cfRule type="cellIs" dxfId="314" priority="331" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="158" operator="between">
+    <cfRule type="cellIs" dxfId="313" priority="332" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="150" priority="154" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="155" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="328" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="311" priority="329" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="148" priority="152" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="153" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="310" priority="326" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="327" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="146" priority="150" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="151" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="308" priority="324" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="325" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="144" priority="148" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="149" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="306" priority="322" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="305" priority="323" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="147" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="304" priority="320" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="321" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="140" priority="144" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="145" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="302" priority="318" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="319" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="138" priority="142" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="143" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="300" priority="316" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="317" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="136" priority="141" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="298" priority="315" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="312" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="139" operator="between">
+    <cfRule type="cellIs" dxfId="296" priority="313" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="140" operator="between">
+    <cfRule type="cellIs" dxfId="295" priority="314" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="132" priority="136" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="310" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="311" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="130" priority="135" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="292" priority="309" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="129" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="306" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="133" operator="between">
+    <cfRule type="cellIs" dxfId="290" priority="307" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="134" operator="between">
+    <cfRule type="cellIs" dxfId="289" priority="308" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="126" priority="130" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="304" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="305" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="124" priority="126" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="129" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="286" priority="300" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="303" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="122" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="299" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="127" operator="between">
+    <cfRule type="cellIs" dxfId="283" priority="301" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="128" operator="between">
+    <cfRule type="cellIs" dxfId="282" priority="302" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="119" priority="124" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="298" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="118" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="295" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="122" operator="between">
+    <cfRule type="cellIs" dxfId="279" priority="296" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="278" priority="297" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="277" priority="293" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="294" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="113" priority="117" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="275" priority="291" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="292" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="111" priority="115" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="273" priority="289" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="290" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="109" priority="113" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="114" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="271" priority="287" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="288" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="107" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="269" priority="286" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="106" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="283" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="110" operator="between">
+    <cfRule type="cellIs" dxfId="267" priority="284" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="266" priority="285" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="103" priority="107" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="108" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="265" priority="281" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="282" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="106" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="263" priority="277" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="280" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="276" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="260" priority="278" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="259" priority="279" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="96" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="269" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="266" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="93" operator="between">
+    <cfRule type="cellIs" dxfId="256" priority="267" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="268" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="254" priority="265" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="253" priority="262" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="263" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="264" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="250" priority="260" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="261" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="248" priority="258" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="259" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="246" priority="257" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="245" priority="254" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="255" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="256" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="242" priority="252" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="253" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="240" priority="243" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="246" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="238" priority="242" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="244" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="245" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="235" priority="240" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="241" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="233" priority="239" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="232" priority="236" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="237" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="238" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="229" priority="234" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="235" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="227" priority="233" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="226" priority="230" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="231" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="232" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="223" priority="228" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="229" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="221" priority="227" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="220" priority="224" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="225" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="226" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="217" priority="222" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="223" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="215" priority="218" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="221" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="213" priority="217" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="219" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="220" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="210" priority="213" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="216" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="208" priority="212" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="214" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="215" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="205" priority="210" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="211" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="203" priority="208" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="209" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="201" priority="206" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="207" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="199" priority="204" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="205" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="197" priority="202" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="203" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="195" priority="201" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="194" priority="198" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="199" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="200" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="191" priority="196" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="197" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="cellIs" dxfId="189" priority="195" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="cellIs" dxfId="188" priority="192" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="193" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="194" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="cellIs" dxfId="185" priority="190" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="191" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="183" priority="186" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="189" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="181" priority="185" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="187" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="188" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="178" priority="176" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="179" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="177" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="178" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="173" priority="171" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="174" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="171" priority="170" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="172" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="173" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="168" priority="169" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="167" priority="166" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="167" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="168" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="158" priority="159" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="157" priority="156" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="157" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="158" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="154" priority="154" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="155" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="152" priority="153" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="151" priority="150" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="151" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="152" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="148" priority="148" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="149" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="146" priority="144" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="147" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="144" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="145" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="146" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="cellIs" dxfId="131" priority="129" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="132" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="cellIs" dxfId="129" priority="128" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="130" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="131" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="126" priority="127" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="125" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="126" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="cellIs" dxfId="110" priority="108" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="111" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="cellIs" dxfId="108" priority="107" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="109" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="110" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="105" priority="106" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="105" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="101" priority="101" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="102" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="99" priority="100" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="95" priority="96" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="94" priority="93" operator="equal">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="93" priority="94" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="92" priority="91" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="91" priority="88" operator="equal">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="95" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="92" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="90" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="87" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="88" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="90" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="87" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="86" priority="84" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="85" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="84" priority="83" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="83" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="89" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="84" priority="82" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="85" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="81" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="80" priority="78" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="79" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="78" priority="69" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="72" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="84" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="70" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="71" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="73" priority="66" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="67" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="71" priority="65" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="63" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="64" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="67" priority="60" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="61" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="65" priority="59" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="57" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="61" priority="54" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="55" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="59" priority="53" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="51" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="49" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="53" priority="44" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="47" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="46" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="42" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="41" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="43" priority="36" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="37" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="33" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="31" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="greaterThan">
-      <formula>"3.0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+      <formula>"3.0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+      <formula>"2.9"</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Notas/Notas Monitoria.xlsx
+++ b/Notas/Notas Monitoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B092C70-938B-47E1-9235-977DCA72E16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEAA2DE-2BB3-43A2-85CF-7B9B1AEED8F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +315,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -460,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -503,9 +511,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -515,6 +520,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,15 +543,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="394">
+  <dxfs count="395">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4441,8 +4462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,10 +4517,10 @@
       <c r="G3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4965,10 +4986,12 @@
       <c r="G21" s="7">
         <v>4.8</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8">
+        <v>5</v>
+      </c>
       <c r="I21" s="15">
         <f t="shared" si="0"/>
-        <v>3.7</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -5197,10 +5220,12 @@
       <c r="G30" s="13">
         <v>4</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8">
+        <v>5</v>
+      </c>
       <c r="I30" s="15">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -5749,10 +5774,12 @@
         <v>5</v>
       </c>
       <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
+      <c r="H51" s="8">
+        <v>5</v>
+      </c>
       <c r="I51" s="15">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -6191,7 +6218,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="8"/>
       <c r="I68" s="15">
-        <f t="shared" ref="I68:I99" si="2">(E68+F68+G68+H68)/4</f>
+        <f t="shared" ref="I68:I71" si="2">(E68+F68+G68+H68)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -6214,11 +6241,15 @@
       <c r="F69" s="9">
         <v>5</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="8"/>
+      <c r="G69" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="H69" s="8">
+        <v>5</v>
+      </c>
       <c r="I69" s="15">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -6281,1664 +6312,1664 @@
     <mergeCell ref="C34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E24 E26:E71">
-    <cfRule type="cellIs" dxfId="393" priority="451" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="457" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="394" priority="451" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="393" priority="457" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F11 F13 F15:F24 F26:F71">
-    <cfRule type="cellIs" dxfId="391" priority="456" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="392" priority="456" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="390" priority="455" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="391" priority="455" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="389" priority="454" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="390" priority="454" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F24 E26:F71">
-    <cfRule type="cellIs" dxfId="388" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="450" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="452" operator="between">
+    <cfRule type="cellIs" dxfId="388" priority="452" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="453" operator="between">
+    <cfRule type="cellIs" dxfId="387" priority="453" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="385" priority="448" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="449" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="386" priority="448" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="449" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="383" priority="446" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="447" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="384" priority="446" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="383" priority="447" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="381" priority="444" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="445" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="382" priority="444" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="381" priority="445" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="379" priority="440" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="443" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="380" priority="440" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="443" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="377" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="439" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="441" operator="between">
+    <cfRule type="cellIs" dxfId="377" priority="441" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="442" operator="between">
+    <cfRule type="cellIs" dxfId="376" priority="442" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="374" priority="437" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="438" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="375" priority="437" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="374" priority="438" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="372" priority="435" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="436" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="373" priority="435" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="436" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="370" priority="434" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="371" priority="434" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="369" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="431" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="432" operator="between">
+    <cfRule type="cellIs" dxfId="369" priority="432" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="433" operator="between">
+    <cfRule type="cellIs" dxfId="368" priority="433" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="366" priority="430" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="367" priority="430" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="365" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="427" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="428" operator="between">
+    <cfRule type="cellIs" dxfId="365" priority="428" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="429" operator="between">
+    <cfRule type="cellIs" dxfId="364" priority="429" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="362" priority="425" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="426" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="425" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="426" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="360" priority="423" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="424" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="361" priority="423" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="424" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="358" priority="421" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="422" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="359" priority="421" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="422" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="356" priority="419" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="420" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="357" priority="419" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="420" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="354" priority="417" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="418" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="355" priority="417" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="418" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="352" priority="415" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="416" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="353" priority="415" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="416" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="350" priority="413" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="414" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="351" priority="413" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="414" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="348" priority="412" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="349" priority="412" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="347" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="409" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="410" operator="between">
+    <cfRule type="cellIs" dxfId="347" priority="410" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="411" operator="between">
+    <cfRule type="cellIs" dxfId="346" priority="411" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="344" priority="407" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="408" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="345" priority="407" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="344" priority="408" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="342" priority="406" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="343" priority="406" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="341" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="403" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="404" operator="between">
+    <cfRule type="cellIs" dxfId="341" priority="404" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="405" operator="between">
+    <cfRule type="cellIs" dxfId="340" priority="405" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="338" priority="401" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="402" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="339" priority="401" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="402" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="336" priority="397" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="400" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="337" priority="397" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="400" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="334" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="396" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="398" operator="between">
+    <cfRule type="cellIs" dxfId="334" priority="398" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="399" operator="between">
+    <cfRule type="cellIs" dxfId="333" priority="399" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="331" priority="395" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="332" priority="395" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="330" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="392" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="393" operator="between">
+    <cfRule type="cellIs" dxfId="330" priority="393" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="394" operator="between">
+    <cfRule type="cellIs" dxfId="329" priority="394" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="327" priority="390" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="391" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="328" priority="390" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="391" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="325" priority="388" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="389" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="326" priority="388" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="389" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="323" priority="386" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="387" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="386" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="323" priority="387" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="321" priority="384" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="385" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="322" priority="384" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="385" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="319" priority="383" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="320" priority="383" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="318" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="380" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="381" operator="between">
+    <cfRule type="cellIs" dxfId="318" priority="381" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="382" operator="between">
+    <cfRule type="cellIs" dxfId="317" priority="382" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="315" priority="378" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="379" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="316" priority="378" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="379" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="313" priority="374" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="377" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="374" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="377" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="311" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="373" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="375" operator="between">
+    <cfRule type="cellIs" dxfId="311" priority="375" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="376" operator="between">
+    <cfRule type="cellIs" dxfId="310" priority="376" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="308" priority="366" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="366" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="307" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="363" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="364" operator="between">
+    <cfRule type="cellIs" dxfId="307" priority="364" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="365" operator="between">
+    <cfRule type="cellIs" dxfId="306" priority="365" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="304" priority="362" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="305" priority="362" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="303" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="359" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="360" operator="between">
+    <cfRule type="cellIs" dxfId="303" priority="360" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="361" operator="between">
+    <cfRule type="cellIs" dxfId="302" priority="361" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="300" priority="357" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="358" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="301" priority="357" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="358" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="298" priority="355" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="356" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="299" priority="355" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="356" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="296" priority="354" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="354" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="295" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="351" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="352" operator="between">
+    <cfRule type="cellIs" dxfId="295" priority="352" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="353" operator="between">
+    <cfRule type="cellIs" dxfId="294" priority="353" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="292" priority="349" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="350" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="293" priority="349" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="350" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="290" priority="340" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="343" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="340" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="343" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="288" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="339" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="341" operator="between">
+    <cfRule type="cellIs" dxfId="288" priority="341" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="342" operator="between">
+    <cfRule type="cellIs" dxfId="287" priority="342" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="285" priority="337" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="338" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="286" priority="337" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="338" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="283" priority="336" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="284" priority="336" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="282" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="333" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="334" operator="between">
+    <cfRule type="cellIs" dxfId="282" priority="334" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="335" operator="between">
+    <cfRule type="cellIs" dxfId="281" priority="335" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="279" priority="331" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="332" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="280" priority="331" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="332" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="277" priority="330" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="330" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="276" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="327" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="328" operator="between">
+    <cfRule type="cellIs" dxfId="276" priority="328" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="329" operator="between">
+    <cfRule type="cellIs" dxfId="275" priority="329" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="273" priority="325" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="326" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="274" priority="325" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="326" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="271" priority="324" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="272" priority="324" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="270" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="321" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="322" operator="between">
+    <cfRule type="cellIs" dxfId="270" priority="322" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="323" operator="between">
+    <cfRule type="cellIs" dxfId="269" priority="323" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="267" priority="319" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="320" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="268" priority="319" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="320" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="265" priority="315" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="318" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="266" priority="315" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="318" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="263" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="314" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="316" operator="between">
+    <cfRule type="cellIs" dxfId="263" priority="316" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="317" operator="between">
+    <cfRule type="cellIs" dxfId="262" priority="317" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="260" priority="310" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="313" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="310" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="313" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="258" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="309" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="311" operator="between">
+    <cfRule type="cellIs" dxfId="258" priority="311" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="312" operator="between">
+    <cfRule type="cellIs" dxfId="257" priority="312" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="255" priority="307" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="308" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="256" priority="307" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="308" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="253" priority="305" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="306" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="305" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="306" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="251" priority="303" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="304" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="303" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="304" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="249" priority="301" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="302" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="301" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="302" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="247" priority="299" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="300" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="299" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="300" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="245" priority="298" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="298" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="244" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="295" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="296" operator="between">
+    <cfRule type="cellIs" dxfId="244" priority="296" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="297" operator="between">
+    <cfRule type="cellIs" dxfId="243" priority="297" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="241" priority="293" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="294" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="293" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="294" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="239" priority="292" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="292" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="238" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="289" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="290" operator="between">
+    <cfRule type="cellIs" dxfId="238" priority="290" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="291" operator="between">
+    <cfRule type="cellIs" dxfId="237" priority="291" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="235" priority="287" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="288" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="287" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="288" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="233" priority="283" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="286" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="283" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="286" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="231" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="282" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="284" operator="between">
+    <cfRule type="cellIs" dxfId="231" priority="284" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="285" operator="between">
+    <cfRule type="cellIs" dxfId="230" priority="285" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="228" priority="273" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="276" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="273" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="276" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="226" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="272" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="274" operator="between">
+    <cfRule type="cellIs" dxfId="226" priority="274" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="275" operator="between">
+    <cfRule type="cellIs" dxfId="225" priority="275" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="223" priority="268" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="271" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="224" priority="268" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="271" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="221" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="267" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="269" operator="between">
+    <cfRule type="cellIs" dxfId="221" priority="269" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="270" operator="between">
+    <cfRule type="cellIs" dxfId="220" priority="270" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="218" priority="266" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="266" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="217" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="263" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="264" operator="between">
+    <cfRule type="cellIs" dxfId="217" priority="264" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="265" operator="between">
+    <cfRule type="cellIs" dxfId="216" priority="265" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="214" priority="256" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="215" priority="256" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="213" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="253" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="254" operator="between">
+    <cfRule type="cellIs" dxfId="213" priority="254" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="255" operator="between">
+    <cfRule type="cellIs" dxfId="212" priority="255" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="210" priority="251" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="252" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="211" priority="251" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="252" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="208" priority="250" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="250" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="207" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="247" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="248" operator="between">
+    <cfRule type="cellIs" dxfId="207" priority="248" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="249" operator="between">
+    <cfRule type="cellIs" dxfId="206" priority="249" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="204" priority="245" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="246" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="245" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="246" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="202" priority="241" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="244" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="241" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="244" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="200" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="240" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="242" operator="between">
+    <cfRule type="cellIs" dxfId="200" priority="242" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="243" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="243" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="197" priority="226" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="229" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="226" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="229" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="195" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="225" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="227" operator="between">
+    <cfRule type="cellIs" dxfId="195" priority="227" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="228" operator="between">
+    <cfRule type="cellIs" dxfId="194" priority="228" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="192" priority="205" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="208" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="205" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="208" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="190" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="204" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="206" operator="between">
+    <cfRule type="cellIs" dxfId="190" priority="206" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="207" operator="between">
+    <cfRule type="cellIs" dxfId="189" priority="207" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="187" priority="203" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="203" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="186" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="200" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="201" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="201" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="202" operator="between">
+    <cfRule type="cellIs" dxfId="185" priority="202" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="183" priority="198" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="199" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="198" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="199" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="181" priority="197" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="197" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="180" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="194" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="195" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="195" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="196" operator="between">
+    <cfRule type="cellIs" dxfId="179" priority="196" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="177" priority="193" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="193" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="176" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="190" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="191" operator="between">
+    <cfRule type="cellIs" dxfId="176" priority="191" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="192" operator="between">
+    <cfRule type="cellIs" dxfId="175" priority="192" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="173" priority="188" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="189" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="188" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="189" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="171" priority="184" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="187" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="184" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="187" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="169" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="183" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="185" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="185" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="186" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="186" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="166" priority="179" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="182" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="179" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="182" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="164" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="178" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="180" operator="between">
+    <cfRule type="cellIs" dxfId="164" priority="180" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="181" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="181" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="161" priority="171" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="171" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="160" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="168" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="169" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="169" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="170" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="170" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="157" priority="166" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="166" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="167" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="155" priority="155" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="155" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="154" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="152" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="153" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="153" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="154" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="154" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="151" priority="150" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="151" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="150" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="151" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="149" priority="149" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="149" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="148" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="146" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="147" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="147" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="148" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="148" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="145" priority="144" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="145" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="144" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="145" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="143" priority="143" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="143" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="142" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="140" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="141" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="142" operator="between">
+    <cfRule type="cellIs" dxfId="141" priority="142" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="139" priority="138" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="139" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="138" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="139" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="137" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="137" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="136" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="134" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="135" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="135" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="136" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="136" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="133" priority="132" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="133" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="132" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="133" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="131" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="131" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="130" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="128" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="129" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="130" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="130" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="127" priority="126" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="127" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="126" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="127" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="125" priority="122" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="125" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="122" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="125" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="123" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="123" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="124" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="124" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="120" priority="117" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="117" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="120" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="116" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="118" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="118" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="119" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="119" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="115" priority="115" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="115" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="114" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="113" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="113" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="114" operator="between">
+    <cfRule type="cellIs" dxfId="113" priority="114" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="110" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="111" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="109" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="109" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="108" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="107" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="108" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="108" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="105" priority="105" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="105" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="104" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="102" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="103" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="103" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="101" priority="94" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="94" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="97" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="99" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="93" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="95" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="95" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="96" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="96" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="96" priority="89" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="89" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="92" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="94" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="90" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="90" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="91" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="91" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="91" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="87" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="90" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="84" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="85" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="85" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="86" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="86" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="87" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="83" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="86" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="81" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="81" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="82" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="82" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I71">
-    <cfRule type="cellIs" dxfId="83" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="79" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:H71">
-    <cfRule type="cellIs" dxfId="81" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="77" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="80" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="76" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="79" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="74" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="75" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="76" priority="71" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="71" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="72" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="74" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="70" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="73" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="68" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="69" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="69" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="70" priority="65" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="65" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="66" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="68" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="64" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="67" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="62" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="63" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="63" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="64" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="60" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="58" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="59" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="60" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="54" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="55" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="55" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="52" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="51" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="cellIs" dxfId="52" priority="47" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="48" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="48" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="45" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="41" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="39" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="40" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="39" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="33" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="33" priority="22" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="22" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="greaterThan">
       <formula>"3."</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="greaterThan">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
-      <formula>"3.0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"3.0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>"3.0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
       <formula>"2.9"</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
@@ -7952,13 +7983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAE5B01-B7EE-469D-A975-BFBD5AC598C9}">
   <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
@@ -7976,13 +8007,13 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>78</v>
       </c>
       <c r="I2" s="3"/>
@@ -8006,883 +8037,913 @@
       <c r="F3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="21">
         <v>202359501</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>3.5</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>3.5</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>3.5</v>
       </c>
-      <c r="F4" s="19">
-        <v>5</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="F4" s="18">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18">
         <v>4.8</v>
       </c>
-      <c r="H4" s="19">
-        <v>5</v>
-      </c>
-      <c r="I4" s="19">
+      <c r="H4" s="18">
+        <v>5</v>
+      </c>
+      <c r="I4" s="29">
+        <f>(E4+F4+G4+H4)/4</f>
         <v>4.5750000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="21">
         <v>202359449</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="19">
-        <v>5</v>
-      </c>
-      <c r="D5" s="19">
-        <v>5</v>
-      </c>
-      <c r="E5" s="19">
-        <v>5</v>
-      </c>
-      <c r="F5" s="19">
-        <v>5</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="C5" s="18">
+        <v>5</v>
+      </c>
+      <c r="D5" s="18">
+        <v>5</v>
+      </c>
+      <c r="E5" s="18">
+        <v>5</v>
+      </c>
+      <c r="F5" s="18">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18">
         <v>4.8</v>
       </c>
-      <c r="H5" s="19">
-        <v>5</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="H5" s="18">
+        <v>5</v>
+      </c>
+      <c r="I5" s="29">
+        <f t="shared" ref="I5:I33" si="0">(E5+F5+G5+H5)/4</f>
         <v>4.95</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="21">
         <v>202359442</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="19">
-        <v>5</v>
-      </c>
-      <c r="D6" s="19">
-        <v>5</v>
-      </c>
-      <c r="E6" s="19">
-        <v>5</v>
-      </c>
-      <c r="F6" s="19">
-        <v>5</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
-        <v>5</v>
-      </c>
-      <c r="I6" s="19">
+      <c r="C6" s="18">
+        <v>5</v>
+      </c>
+      <c r="D6" s="18">
+        <v>5</v>
+      </c>
+      <c r="E6" s="18">
+        <v>5</v>
+      </c>
+      <c r="F6" s="18">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>5</v>
+      </c>
+      <c r="I6" s="29">
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="21">
         <v>202359305</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="19">
-        <v>5</v>
-      </c>
-      <c r="D7" s="19">
-        <v>5</v>
-      </c>
-      <c r="E7" s="19">
-        <v>5</v>
-      </c>
-      <c r="F7" s="19">
-        <v>5</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="18">
+        <v>5</v>
+      </c>
+      <c r="E7" s="18">
+        <v>5</v>
+      </c>
+      <c r="F7" s="18">
+        <v>5</v>
+      </c>
+      <c r="G7" s="18">
         <v>4.8</v>
       </c>
-      <c r="H7" s="19">
-        <v>5</v>
-      </c>
-      <c r="I7" s="19">
+      <c r="H7" s="18">
+        <v>5</v>
+      </c>
+      <c r="I7" s="29">
+        <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="21">
         <v>202359435</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>4</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>4</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>4</v>
       </c>
-      <c r="F8" s="19">
-        <v>5</v>
-      </c>
-      <c r="G8" s="19">
+      <c r="F8" s="18">
+        <v>5</v>
+      </c>
+      <c r="G8" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H8" s="19">
-        <v>5</v>
-      </c>
-      <c r="I8" s="19">
+      <c r="H8" s="18">
+        <v>5</v>
+      </c>
+      <c r="I8" s="29">
+        <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="21">
         <v>202359413</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="19">
-        <v>5</v>
-      </c>
-      <c r="D9" s="19">
-        <v>5</v>
-      </c>
-      <c r="E9" s="19">
-        <v>5</v>
-      </c>
-      <c r="F9" s="19">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="C9" s="18">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18">
+        <v>5</v>
+      </c>
+      <c r="E9" s="18">
+        <v>5</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
         <v>4.8</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>3</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="29">
+        <f t="shared" si="0"/>
         <v>4.45</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="21">
         <v>202359394</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="19">
-        <v>5</v>
-      </c>
-      <c r="D10" s="19">
-        <v>5</v>
-      </c>
-      <c r="E10" s="19">
-        <v>5</v>
-      </c>
-      <c r="F10" s="19">
-        <v>5</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="C10" s="18">
+        <v>5</v>
+      </c>
+      <c r="D10" s="18">
+        <v>5</v>
+      </c>
+      <c r="E10" s="18">
+        <v>5</v>
+      </c>
+      <c r="F10" s="18">
+        <v>5</v>
+      </c>
+      <c r="G10" s="18">
         <v>4.8</v>
       </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
-        <v>3.7</v>
+      <c r="H10" s="18">
+        <v>5</v>
+      </c>
+      <c r="I10" s="29">
+        <f t="shared" si="0"/>
+        <v>4.95</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="21">
         <v>202359450</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>4</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>4</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>4</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>4</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <v>4</v>
       </c>
-      <c r="H11" s="19">
-        <v>5</v>
-      </c>
-      <c r="I11" s="19">
+      <c r="H11" s="18">
+        <v>5</v>
+      </c>
+      <c r="I11" s="29">
+        <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="21">
         <v>202359396</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="19">
-        <v>5</v>
-      </c>
-      <c r="D12" s="19">
-        <v>5</v>
-      </c>
-      <c r="E12" s="19">
-        <v>5</v>
-      </c>
-      <c r="F12" s="19">
-        <v>5</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="C12" s="18">
+        <v>5</v>
+      </c>
+      <c r="D12" s="18">
+        <v>5</v>
+      </c>
+      <c r="E12" s="18">
+        <v>5</v>
+      </c>
+      <c r="F12" s="18">
+        <v>5</v>
+      </c>
+      <c r="G12" s="18">
         <v>4.8</v>
       </c>
-      <c r="H12" s="19">
-        <v>5</v>
-      </c>
-      <c r="I12" s="19">
+      <c r="H12" s="18">
+        <v>5</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="21">
         <v>202359570</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="19">
-        <v>5</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="C13" s="18">
+        <v>5</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
         <v>3</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>3</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <v>4</v>
       </c>
-      <c r="H13" s="19">
-        <v>0</v>
-      </c>
-      <c r="I13" s="19">
-        <v>2.5</v>
+      <c r="H13" s="18">
+        <v>5</v>
+      </c>
+      <c r="I13" s="29">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="21">
         <v>202359566</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="19">
-        <v>5</v>
-      </c>
-      <c r="F14" s="19">
+      <c r="E14" s="18">
+        <v>5</v>
+      </c>
+      <c r="F14" s="18">
         <v>3</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <v>4.5</v>
       </c>
-      <c r="H14" s="19">
-        <v>5</v>
-      </c>
-      <c r="I14" s="19">
+      <c r="H14" s="18">
+        <v>5</v>
+      </c>
+      <c r="I14" s="29">
+        <f t="shared" si="0"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="21">
         <v>202359493</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="19">
-        <v>5</v>
-      </c>
-      <c r="D15" s="19">
-        <v>5</v>
-      </c>
-      <c r="E15" s="19">
-        <v>5</v>
-      </c>
-      <c r="F15" s="19">
-        <v>5</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="C15" s="18">
+        <v>5</v>
+      </c>
+      <c r="D15" s="18">
+        <v>5</v>
+      </c>
+      <c r="E15" s="18">
+        <v>5</v>
+      </c>
+      <c r="F15" s="18">
+        <v>5</v>
+      </c>
+      <c r="G15" s="18">
         <v>4.8</v>
       </c>
-      <c r="H15" s="19">
-        <v>5</v>
-      </c>
-      <c r="I15" s="19">
+      <c r="H15" s="18">
+        <v>5</v>
+      </c>
+      <c r="I15" s="29">
+        <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="21">
         <v>202359416</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="19">
-        <v>5</v>
-      </c>
-      <c r="F16" s="19">
+      <c r="E16" s="18">
+        <v>5</v>
+      </c>
+      <c r="F16" s="18">
         <v>3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>4.5</v>
       </c>
-      <c r="H16" s="19">
-        <v>5</v>
-      </c>
-      <c r="I16" s="19">
+      <c r="H16" s="18">
+        <v>5</v>
+      </c>
+      <c r="I16" s="29">
+        <f t="shared" si="0"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="21">
         <v>202359540</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="19">
-        <v>5</v>
-      </c>
-      <c r="D17" s="19">
-        <v>5</v>
-      </c>
-      <c r="E17" s="19">
-        <v>5</v>
-      </c>
-      <c r="F17" s="19">
-        <v>0</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0</v>
-      </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
-      <c r="I17" s="19">
+      <c r="C17" s="18">
+        <v>5</v>
+      </c>
+      <c r="D17" s="18">
+        <v>5</v>
+      </c>
+      <c r="E17" s="18">
+        <v>5</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="29">
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="21">
         <v>202359690</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>3</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>3</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>3</v>
       </c>
-      <c r="F18" s="19">
-        <v>5</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="F18" s="18">
+        <v>5</v>
+      </c>
+      <c r="G18" s="18">
         <v>3.8</v>
       </c>
-      <c r="H18" s="19">
-        <v>5</v>
-      </c>
-      <c r="I18" s="19">
+      <c r="H18" s="18">
+        <v>5</v>
+      </c>
+      <c r="I18" s="29">
+        <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="21">
         <v>202359423</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="19">
-        <v>5</v>
-      </c>
-      <c r="D19" s="19">
-        <v>5</v>
-      </c>
-      <c r="E19" s="19">
-        <v>5</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="19">
+      <c r="C19" s="18">
+        <v>5</v>
+      </c>
+      <c r="D19" s="18">
+        <v>5</v>
+      </c>
+      <c r="E19" s="18">
+        <v>5</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
         <v>3.8</v>
       </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="19">
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="29">
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="21">
         <v>202359418</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="19">
-        <v>5</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="C20" s="18">
+        <v>5</v>
+      </c>
+      <c r="D20" s="18">
         <v>3</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>4</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>3</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="18">
         <v>3.8</v>
       </c>
-      <c r="H20" s="19">
-        <v>5</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="H20" s="18">
+        <v>5</v>
+      </c>
+      <c r="I20" s="29">
+        <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="21">
         <v>202376834</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="19">
-        <v>5</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0</v>
-      </c>
-      <c r="E21" s="19">
+      <c r="C21" s="18">
+        <v>5</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
         <v>3</v>
       </c>
-      <c r="F21" s="19">
-        <v>5</v>
-      </c>
-      <c r="G21" s="19">
+      <c r="F21" s="18">
+        <v>5</v>
+      </c>
+      <c r="G21" s="18">
         <v>4</v>
       </c>
-      <c r="H21" s="19">
-        <v>5</v>
-      </c>
-      <c r="I21" s="19">
+      <c r="H21" s="18">
+        <v>5</v>
+      </c>
+      <c r="I21" s="29">
+        <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="21">
         <v>202359406</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="19">
-        <v>5</v>
-      </c>
-      <c r="D22" s="19">
-        <v>5</v>
-      </c>
-      <c r="E22" s="19">
-        <v>5</v>
-      </c>
-      <c r="F22" s="19">
-        <v>5</v>
-      </c>
-      <c r="G22" s="19">
+      <c r="C22" s="18">
+        <v>5</v>
+      </c>
+      <c r="D22" s="18">
+        <v>5</v>
+      </c>
+      <c r="E22" s="18">
+        <v>5</v>
+      </c>
+      <c r="F22" s="18">
+        <v>5</v>
+      </c>
+      <c r="G22" s="18">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H22" s="19">
-        <v>5</v>
-      </c>
-      <c r="I22" s="19">
+      <c r="H22" s="18">
+        <v>5</v>
+      </c>
+      <c r="I22" s="29">
+        <f t="shared" si="0"/>
         <v>4.9749999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="21">
         <v>202359310</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="19">
-        <v>5</v>
-      </c>
-      <c r="D23" s="19">
-        <v>5</v>
-      </c>
-      <c r="E23" s="19">
-        <v>5</v>
-      </c>
-      <c r="F23" s="19">
-        <v>5</v>
-      </c>
-      <c r="G23" s="19">
+      <c r="C23" s="18">
+        <v>5</v>
+      </c>
+      <c r="D23" s="18">
+        <v>5</v>
+      </c>
+      <c r="E23" s="18">
+        <v>5</v>
+      </c>
+      <c r="F23" s="18">
+        <v>5</v>
+      </c>
+      <c r="G23" s="18">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H23" s="19">
-        <v>5</v>
-      </c>
-      <c r="I23" s="19">
+      <c r="H23" s="18">
+        <v>5</v>
+      </c>
+      <c r="I23" s="29">
+        <f t="shared" si="0"/>
         <v>4.9749999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="21">
         <v>202359530</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="19">
-        <v>5</v>
-      </c>
-      <c r="D24" s="19">
-        <v>5</v>
-      </c>
-      <c r="E24" s="19">
-        <v>5</v>
-      </c>
-      <c r="F24" s="19">
-        <v>5</v>
-      </c>
-      <c r="G24" s="19">
-        <v>0</v>
-      </c>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19">
-        <v>2.5</v>
+      <c r="C24" s="18">
+        <v>5</v>
+      </c>
+      <c r="D24" s="18">
+        <v>5</v>
+      </c>
+      <c r="E24" s="18">
+        <v>5</v>
+      </c>
+      <c r="F24" s="18">
+        <v>5</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>5</v>
+      </c>
+      <c r="I24" s="29">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="21">
         <v>202359431</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="19">
-        <v>5</v>
-      </c>
-      <c r="D25" s="19">
-        <v>5</v>
-      </c>
-      <c r="E25" s="19">
-        <v>5</v>
-      </c>
-      <c r="F25" s="19">
-        <v>5</v>
-      </c>
-      <c r="G25" s="19">
+      <c r="C25" s="18">
+        <v>5</v>
+      </c>
+      <c r="D25" s="18">
+        <v>5</v>
+      </c>
+      <c r="E25" s="18">
+        <v>5</v>
+      </c>
+      <c r="F25" s="18">
+        <v>5</v>
+      </c>
+      <c r="G25" s="18">
         <v>3.7</v>
       </c>
-      <c r="H25" s="19">
-        <v>0</v>
-      </c>
-      <c r="I25" s="19">
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="29">
+        <f t="shared" si="0"/>
         <v>3.4249999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="21">
         <v>202376849</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="19">
-        <v>5</v>
-      </c>
-      <c r="D26" s="19">
-        <v>5</v>
-      </c>
-      <c r="E26" s="19">
-        <v>5</v>
-      </c>
-      <c r="F26" s="19">
-        <v>5</v>
-      </c>
-      <c r="G26" s="19">
+      <c r="C26" s="18">
+        <v>5</v>
+      </c>
+      <c r="D26" s="18">
+        <v>5</v>
+      </c>
+      <c r="E26" s="18">
+        <v>5</v>
+      </c>
+      <c r="F26" s="18">
+        <v>5</v>
+      </c>
+      <c r="G26" s="18">
         <v>4.7</v>
       </c>
-      <c r="H26" s="19">
-        <v>5</v>
-      </c>
-      <c r="I26" s="19">
+      <c r="H26" s="18">
+        <v>5</v>
+      </c>
+      <c r="I26" s="29">
+        <f t="shared" si="0"/>
         <v>4.9249999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
+      <c r="A27" s="21">
         <v>202359748</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="19">
-        <v>5</v>
-      </c>
-      <c r="D27" s="19">
-        <v>5</v>
-      </c>
-      <c r="E27" s="19">
-        <v>5</v>
-      </c>
-      <c r="F27" s="19">
-        <v>5</v>
-      </c>
-      <c r="G27" s="19">
+      <c r="C27" s="18">
+        <v>5</v>
+      </c>
+      <c r="D27" s="18">
+        <v>5</v>
+      </c>
+      <c r="E27" s="18">
+        <v>5</v>
+      </c>
+      <c r="F27" s="18">
+        <v>5</v>
+      </c>
+      <c r="G27" s="18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H27" s="19">
-        <v>0</v>
-      </c>
-      <c r="I27" s="19">
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="29">
+        <f t="shared" si="0"/>
         <v>3.65</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+      <c r="A28" s="21">
         <v>202359517</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="19">
-        <v>0</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0</v>
-      </c>
-      <c r="E28" s="19">
-        <v>0</v>
-      </c>
-      <c r="F28" s="19">
-        <v>0</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0</v>
-      </c>
-      <c r="H28" s="19">
-        <v>5</v>
-      </c>
-      <c r="I28" s="19">
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>5</v>
+      </c>
+      <c r="I28" s="29">
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+      <c r="A29" s="21">
         <v>202359460</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="19">
-        <v>5</v>
-      </c>
-      <c r="D29" s="19">
-        <v>5</v>
-      </c>
-      <c r="E29" s="19">
-        <v>5</v>
-      </c>
-      <c r="F29" s="19">
-        <v>5</v>
-      </c>
-      <c r="G29" s="19">
+      <c r="C29" s="18">
+        <v>5</v>
+      </c>
+      <c r="D29" s="18">
+        <v>5</v>
+      </c>
+      <c r="E29" s="18">
+        <v>5</v>
+      </c>
+      <c r="F29" s="18">
+        <v>5</v>
+      </c>
+      <c r="G29" s="18">
         <v>4.2</v>
       </c>
-      <c r="H29" s="19">
-        <v>0</v>
-      </c>
-      <c r="I29" s="19">
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="29">
+        <f t="shared" si="0"/>
         <v>3.55</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
+      <c r="A30" s="21">
         <v>202359594</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="19">
-        <v>5</v>
-      </c>
-      <c r="D30" s="19">
-        <v>5</v>
-      </c>
-      <c r="E30" s="19">
-        <v>5</v>
-      </c>
-      <c r="F30" s="19">
-        <v>5</v>
-      </c>
-      <c r="G30" s="19">
+      <c r="C30" s="18">
+        <v>5</v>
+      </c>
+      <c r="D30" s="18">
+        <v>5</v>
+      </c>
+      <c r="E30" s="18">
+        <v>5</v>
+      </c>
+      <c r="F30" s="18">
+        <v>5</v>
+      </c>
+      <c r="G30" s="18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H30" s="19">
-        <v>5</v>
-      </c>
-      <c r="I30" s="19">
+      <c r="H30" s="18">
+        <v>5</v>
+      </c>
+      <c r="I30" s="29">
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="21">
         <v>202359567</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="19">
-        <v>0</v>
-      </c>
-      <c r="D31" s="19">
-        <v>0</v>
-      </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31" s="19">
-        <v>5</v>
-      </c>
-      <c r="G31" s="19">
+      <c r="C31" s="18">
+        <v>0</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>5</v>
+      </c>
+      <c r="G31" s="18">
         <v>4</v>
       </c>
-      <c r="H31" s="19">
-        <v>5</v>
-      </c>
-      <c r="I31" s="19">
+      <c r="H31" s="18">
+        <v>5</v>
+      </c>
+      <c r="I31" s="29">
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+      <c r="A32" s="21">
         <v>202359411</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="19">
-        <v>5</v>
-      </c>
-      <c r="D32" s="19">
-        <v>5</v>
-      </c>
-      <c r="E32" s="19">
-        <v>5</v>
-      </c>
-      <c r="F32" s="19">
-        <v>5</v>
-      </c>
-      <c r="G32" s="19">
-        <v>0</v>
-      </c>
-      <c r="H32" s="19">
-        <v>0</v>
-      </c>
-      <c r="I32" s="19">
-        <v>2.5</v>
+      <c r="C32" s="18">
+        <v>5</v>
+      </c>
+      <c r="D32" s="18">
+        <v>5</v>
+      </c>
+      <c r="E32" s="18">
+        <v>5</v>
+      </c>
+      <c r="F32" s="18">
+        <v>5</v>
+      </c>
+      <c r="G32" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="H32" s="8">
+        <v>5</v>
+      </c>
+      <c r="I32" s="29">
+        <f t="shared" si="0"/>
+        <v>4.625</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
+      <c r="A33" s="21">
         <v>202359695</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="19">
-        <v>0</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0</v>
-      </c>
-      <c r="E33" s="19">
-        <v>0</v>
-      </c>
-      <c r="F33" s="19">
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
         <v>3</v>
       </c>
-      <c r="G33" s="19">
-        <v>0</v>
-      </c>
-      <c r="H33" s="19">
-        <v>0</v>
-      </c>
-      <c r="I33" s="19">
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="29">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -8890,24 +8951,30 @@
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:I33">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+  <conditionalFormatting sqref="C4:I31 C33:I33 C32:F32 I32">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
       <formula>1</formula>
       <formula>2.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>2.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>2.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>